--- a/projects/project5/Lab6_priorities_perifereion.xlsx
+++ b/projects/project5/Lab6_priorities_perifereion.xlsx
@@ -197,12 +197,23 @@
   <dimension ref="A1:M38"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="U8" activeCellId="0" sqref="U8"/>
+      <selection pane="topLeft" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1025" min="1" style="0" width="10.8279069767442"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="28"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="0" width="24.2"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="0" width="18.9906976744186"/>
+    <col collapsed="false" hidden="false" max="6" min="6" style="0" width="19.8372093023256"/>
+    <col collapsed="false" hidden="false" max="9" min="7" style="0" width="11.2"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="0" width="20.4046511627907"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="0" width="15.4790697674419"/>
+    <col collapsed="false" hidden="false" max="12" min="12" style="0" width="15.0558139534884"/>
+    <col collapsed="false" hidden="false" max="13" min="13" style="0" width="17.5906976744186"/>
+    <col collapsed="false" hidden="false" max="1025" min="14" style="0" width="11.2"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="37.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
